--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.68419278978601</v>
+        <v>8.379101</v>
       </c>
       <c r="H2">
-        <v>7.68419278978601</v>
+        <v>25.137303</v>
       </c>
       <c r="I2">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="J2">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.6791800134101</v>
+        <v>33.24999533333333</v>
       </c>
       <c r="N2">
-        <v>17.6791800134101</v>
+        <v>99.74998599999999</v>
       </c>
       <c r="O2">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="P2">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="Q2">
-        <v>135.8502275883748</v>
+        <v>278.6050691475286</v>
       </c>
       <c r="R2">
-        <v>135.8502275883748</v>
+        <v>2507.445622327758</v>
       </c>
       <c r="S2">
-        <v>0.08701948088078851</v>
+        <v>0.1266501341973709</v>
       </c>
       <c r="T2">
-        <v>0.08701948088078851</v>
+        <v>0.1266501341973709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.68419278978601</v>
+        <v>8.379101</v>
       </c>
       <c r="H3">
-        <v>7.68419278978601</v>
+        <v>25.137303</v>
       </c>
       <c r="I3">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="J3">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2818385695768</v>
+        <v>23.30243966666667</v>
       </c>
       <c r="N3">
-        <v>23.2818385695768</v>
+        <v>69.907319</v>
       </c>
       <c r="O3">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="P3">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="Q3">
-        <v>178.9021360693039</v>
+        <v>195.2534955134064</v>
       </c>
       <c r="R3">
-        <v>178.9021360693039</v>
+        <v>1757.281459620657</v>
       </c>
       <c r="S3">
-        <v>0.1145965765798041</v>
+        <v>0.0887596248156708</v>
       </c>
       <c r="T3">
-        <v>0.1145965765798041</v>
+        <v>0.08875962481567079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.68419278978601</v>
+        <v>8.379101</v>
       </c>
       <c r="H4">
-        <v>7.68419278978601</v>
+        <v>25.137303</v>
       </c>
       <c r="I4">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="J4">
-        <v>0.2112188803171465</v>
+        <v>0.2232365200207407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95094284865339</v>
+        <v>2.054792666666667</v>
       </c>
       <c r="N4">
-        <v>1.95094284865339</v>
+        <v>6.164378</v>
       </c>
       <c r="O4">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="P4">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="Q4">
-        <v>14.99142097090696</v>
+        <v>17.21731528805934</v>
       </c>
       <c r="R4">
-        <v>14.99142097090696</v>
+        <v>154.955837592534</v>
       </c>
       <c r="S4">
-        <v>0.009602822856553863</v>
+        <v>0.007826761007698996</v>
       </c>
       <c r="T4">
-        <v>0.009602822856553863</v>
+        <v>0.007826761007698994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29147360047123</v>
+        <v>9.350178333333334</v>
       </c>
       <c r="H5">
-        <v>9.29147360047123</v>
+        <v>28.050535</v>
       </c>
       <c r="I5">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="J5">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6791800134101</v>
+        <v>33.24999533333333</v>
       </c>
       <c r="N5">
-        <v>17.6791800134101</v>
+        <v>99.74998599999999</v>
       </c>
       <c r="O5">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="P5">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="Q5">
-        <v>164.2656343725785</v>
+        <v>310.8933859491678</v>
       </c>
       <c r="R5">
-        <v>164.2656343725785</v>
+        <v>2798.04047354251</v>
       </c>
       <c r="S5">
-        <v>0.1052210988778528</v>
+        <v>0.141327970707838</v>
       </c>
       <c r="T5">
-        <v>0.1052210988778528</v>
+        <v>0.141327970707838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29147360047123</v>
+        <v>9.350178333333334</v>
       </c>
       <c r="H6">
-        <v>9.29147360047123</v>
+        <v>28.050535</v>
       </c>
       <c r="I6">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="J6">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2818385695768</v>
+        <v>23.30243966666667</v>
       </c>
       <c r="N6">
-        <v>23.2818385695768</v>
+        <v>69.907319</v>
       </c>
       <c r="O6">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="P6">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="Q6">
-        <v>216.3225884396557</v>
+        <v>217.8819664850739</v>
       </c>
       <c r="R6">
-        <v>216.3225884396557</v>
+        <v>1960.937698365665</v>
       </c>
       <c r="S6">
-        <v>0.1385664174655984</v>
+        <v>0.0990462247472946</v>
       </c>
       <c r="T6">
-        <v>0.1385664174655984</v>
+        <v>0.09904622474729458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29147360047123</v>
+        <v>9.350178333333334</v>
       </c>
       <c r="H7">
-        <v>9.29147360047123</v>
+        <v>28.050535</v>
       </c>
       <c r="I7">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="J7">
-        <v>0.2553989344198263</v>
+        <v>0.2491080215773342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95094284865339</v>
+        <v>2.054792666666667</v>
       </c>
       <c r="N7">
-        <v>1.95094284865339</v>
+        <v>6.164378</v>
       </c>
       <c r="O7">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="P7">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="Q7">
-        <v>18.12713397429111</v>
+        <v>19.21267787135889</v>
       </c>
       <c r="R7">
-        <v>18.12713397429111</v>
+        <v>172.91410084223</v>
       </c>
       <c r="S7">
-        <v>0.01161141807637503</v>
+        <v>0.008733826122201574</v>
       </c>
       <c r="T7">
-        <v>0.01161141807637503</v>
+        <v>0.00873382612220157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.4045699704703</v>
+        <v>19.80535433333333</v>
       </c>
       <c r="H8">
-        <v>19.4045699704703</v>
+        <v>59.416063</v>
       </c>
       <c r="I8">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="J8">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.6791800134101</v>
+        <v>33.24999533333333</v>
       </c>
       <c r="N8">
-        <v>17.6791800134101</v>
+        <v>99.74998599999999</v>
       </c>
       <c r="O8">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="P8">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="Q8">
-        <v>343.0568855907563</v>
+        <v>658.5279391583464</v>
       </c>
       <c r="R8">
-        <v>343.0568855907563</v>
+        <v>5926.751452425117</v>
       </c>
       <c r="S8">
-        <v>0.2197466476621661</v>
+        <v>0.2993579841254029</v>
       </c>
       <c r="T8">
-        <v>0.2197466476621661</v>
+        <v>0.2993579841254029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.4045699704703</v>
+        <v>19.80535433333333</v>
       </c>
       <c r="H9">
-        <v>19.4045699704703</v>
+        <v>59.416063</v>
       </c>
       <c r="I9">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="J9">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2818385695768</v>
+        <v>23.30243966666667</v>
       </c>
       <c r="N9">
-        <v>23.2818385695768</v>
+        <v>69.907319</v>
       </c>
       <c r="O9">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="P9">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="Q9">
-        <v>451.7740655645471</v>
+        <v>461.5130744294553</v>
       </c>
       <c r="R9">
-        <v>451.7740655645471</v>
+        <v>4153.617669865097</v>
       </c>
       <c r="S9">
-        <v>0.2893859315418207</v>
+        <v>0.209797664447306</v>
       </c>
       <c r="T9">
-        <v>0.2893859315418207</v>
+        <v>0.209797664447306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.4045699704703</v>
+        <v>19.80535433333333</v>
       </c>
       <c r="H10">
-        <v>19.4045699704703</v>
+        <v>59.416063</v>
       </c>
       <c r="I10">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="J10">
-        <v>0.5333821852630274</v>
+        <v>0.5276554584019252</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.95094284865339</v>
+        <v>2.054792666666667</v>
       </c>
       <c r="N10">
-        <v>1.95094284865339</v>
+        <v>6.164378</v>
       </c>
       <c r="O10">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="P10">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="Q10">
-        <v>37.85720701508335</v>
+        <v>40.69589684486822</v>
       </c>
       <c r="R10">
-        <v>37.85720701508335</v>
+        <v>366.263071603814</v>
       </c>
       <c r="S10">
-        <v>0.0242496060590406</v>
+        <v>0.01849980982921625</v>
       </c>
       <c r="T10">
-        <v>0.0242496060590406</v>
+        <v>0.01849980982921624</v>
       </c>
     </row>
   </sheetData>
